--- a/database/sidis/expdata/3041.xlsx
+++ b/database/sidis/expdata/3041.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/files_HEPdata 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Liu/Repos/fitpack/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F30B9A-A067-DE47-AD2B-CDA6903A250A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1423FA-F611-4447-8ADE-0F37CBDAF218}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="960" windowWidth="27700" windowHeight="15840" xr2:uid="{CC05B883-ACF3-1D45-A53A-5B244E1FD183}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{9A7C6277-D8F3-2848-A6E3-F214747BE593}" name="Zgt01_n_x_Col" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Zgt01_n_x_Col" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10008" sourceFile="/Users/user/Downloads/files_HEPdata 2/Zgt01_n_x_Col.txt" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sysabs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>compass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysabs_u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Zgt01_n_x_Col" connectionId="1" xr16:uid="{EEEA106F-19F6-D447-88A6-BE7545759CB8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Zgt01_n_x_Col" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,7 +503,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -559,19 +559,19 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -600,7 +600,7 @@
         <v>1.27</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>-8.9999999999999993E-3</v>
@@ -615,13 +615,13 @@
         <v>4.3588989435406752E-3</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>1.59</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3">
         <v>0.01</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>1.85</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>1E-3</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>1.95</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>8.9999999999999993E-3</v>
@@ -774,13 +774,13 @@
         <v>2.6457513110645903E-3</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="s">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>7.0000000000000001E-3</v>
@@ -827,13 +827,13 @@
         <v>3.0000000000000005E-3</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" t="s">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>2.9</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>1.4E-2</v>
@@ -880,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" t="s">
         <v>1</v>
@@ -918,7 +918,7 @@
         <v>3.62</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>1.2E-2</v>
@@ -933,13 +933,13 @@
         <v>1.0816653826391971E-2</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" t="s">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>4.5</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>4.7E-2</v>
@@ -986,13 +986,13 @@
         <v>2.374868417407585E-2</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" t="s">
         <v>1</v>
@@ -1024,7 +1024,7 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>2.5999999999999999E-2</v>
@@ -1039,13 +1039,13 @@
         <v>7.745966692414832E-3</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>4.9400000000000004</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>6.0000000000000001E-3</v>
@@ -1092,13 +1092,13 @@
         <v>4.5825756949558379E-3</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="s">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>5.0000000000000001E-3</v>
@@ -1145,13 +1145,13 @@
         <v>3.872983346207416E-3</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" t="s">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>5.05</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13">
         <v>4.2999999999999997E-2</v>
@@ -1198,13 +1198,13 @@
         <v>4.5825756949558379E-3</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" t="s">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>5.53</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>8.0000000000000002E-3</v>
@@ -1251,13 +1251,13 @@
         <v>8.485281374238568E-3</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" t="s">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>7.1</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15">
         <v>5.8000000000000003E-2</v>
@@ -1304,13 +1304,13 @@
         <v>2.6153393661244043E-2</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="s">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>1.7999999999999999E-2</v>
@@ -1357,13 +1357,13 @@
         <v>8.485281374238568E-3</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="s">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>9.15</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17">
         <v>7.0000000000000001E-3</v>
@@ -1410,13 +1410,13 @@
         <v>4.3588989435406752E-3</v>
       </c>
       <c r="N17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="s">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         <v>9.44</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>0.01</v>
@@ -1463,13 +1463,13 @@
         <v>4.3588989435406752E-3</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" t="s">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>9.69</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19">
         <v>5.2999999999999999E-2</v>
@@ -1516,13 +1516,13 @@
         <v>4.3588989435406752E-3</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" t="s">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>10.8</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20">
         <v>6.2E-2</v>
@@ -1569,13 +1569,13 @@
         <v>5.1961524227066352E-3</v>
       </c>
       <c r="N20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="s">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>12.94</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>8.3000000000000004E-2</v>
@@ -1622,13 +1622,13 @@
         <v>1.1618950038622249E-2</v>
       </c>
       <c r="N21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="s">
         <v>1</v>
@@ -1660,7 +1660,7 @@
         <v>18.86</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22">
         <v>0.10299999999999999</v>
@@ -1675,13 +1675,13 @@
         <v>2.9580398915498095E-2</v>
       </c>
       <c r="N22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" t="s">
         <v>1</v>
@@ -1713,7 +1713,7 @@
         <v>21.85</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23">
         <v>-1.2E-2</v>
@@ -1728,13 +1728,13 @@
         <v>1.5748015748023623E-2</v>
       </c>
       <c r="N23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="s">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>24.89</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24">
         <v>7.0000000000000001E-3</v>
@@ -1781,13 +1781,13 @@
         <v>9.1651513899116757E-3</v>
       </c>
       <c r="N24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" t="s">
         <v>1</v>
@@ -1819,7 +1819,7 @@
         <v>28.07</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25">
         <v>7.0000000000000001E-3</v>
@@ -1834,13 +1834,13 @@
         <v>8.9442719099991613E-3</v>
       </c>
       <c r="N25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q25" t="s">
         <v>1</v>
@@ -1872,7 +1872,7 @@
         <v>31.04</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26">
         <v>6.0999999999999999E-2</v>
@@ -1887,13 +1887,13 @@
         <v>8.2462112512353188E-3</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q26" t="s">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27">
         <v>4.3999999999999997E-2</v>
@@ -1940,13 +1940,13 @@
         <v>1.6970562748477136E-2</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" t="s">
         <v>1</v>
